--- a/tests/edb/data/areasources.xlsx
+++ b/tests/edb/data/areasources.xlsx
@@ -506,10 +506,10 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.09"/>
@@ -605,7 +605,9 @@
       <c r="D3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="n">
+        <v>3857</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>16</v>
@@ -639,7 +641,9 @@
       <c r="D4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="n">
+        <v>3857</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -671,7 +675,9 @@
       <c r="D5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="n">
+        <v>3857</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
@@ -744,10 +750,10 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="1" sqref="E5 A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -2238,10 +2244,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
@@ -2301,10 +2307,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="E5 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>

--- a/tests/edb/data/areasources.xlsx
+++ b/tests/edb/data/areasources.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">subst:PM10</t>
   </si>
   <si>
-    <t xml:space="preserve">unit</t>
+    <t xml:space="preserve">emission_unit</t>
   </si>
   <si>
     <t xml:space="preserve">vedspis1</t>
@@ -506,10 +506,10 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.09"/>
@@ -750,10 +750,10 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="1" sqref="E5 A28"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -2244,10 +2244,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
@@ -2307,10 +2307,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="E5 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>

--- a/tests/edb/data/areasources.xlsx
+++ b/tests/edb/data/areasources.xlsx
@@ -506,10 +506,10 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.09"/>
@@ -753,7 +753,7 @@
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -2247,7 +2247,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
@@ -2310,7 +2310,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>

--- a/tests/edb/data/areasources.xlsx
+++ b/tests/edb/data/areasources.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
   <si>
     <t xml:space="preserve">facility_id</t>
   </si>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">geometry</t>
   </si>
   <si>
-    <t xml:space="preserve">EPSG</t>
-  </si>
-  <si>
     <t xml:space="preserve">timevar</t>
   </si>
   <si>
@@ -70,7 +67,7 @@
     <t xml:space="preserve">source1</t>
   </si>
   <si>
-    <t xml:space="preserve">POLYGON ((2449702.70275976 5078151.62902639,2450837.61057971 5078021.39370279,2450744.58534857 5077216.7254534,2450102.71125368 5077077.18760669,2449591.07248239 5077249.2842843,2449702.70275976 5078151.62902639))</t>
+    <t xml:space="preserve">POLYGON ((22.006 41.444,22.016 41.443,22.015 41.438,22.009 41.437,22.005 41.438,22.006 41.444))</t>
   </si>
   <si>
     <t xml:space="preserve">1.3</t>
@@ -85,7 +82,7 @@
     <t xml:space="preserve">source2</t>
   </si>
   <si>
-    <t xml:space="preserve">POLYGON ((2449418.97580478 5076253.91431107,2449879.45069894 5076691.13289745,2450521.32479382 5076737.64551302,2450814.35427192 5076374.84711156,2450698.072733 5075681.80913954,2449651.53888264 5075328.3132612,2449418.97580478 5076253.91431107))</t>
+    <t xml:space="preserve">POLYGON ((22.003 41.431,22.007 41.434,22.013 41.435,22.016 41.432,22.014 41.428,22.005 41.425,22.003 41.431))</t>
   </si>
   <si>
     <t xml:space="preserve">1-b</t>
@@ -97,7 +94,7 @@
     <t xml:space="preserve">source3</t>
   </si>
   <si>
-    <t xml:space="preserve">POLYGON ((2441769.48069413 5078251.37652748,2442293.71664687 5078431.58263624,2442739.3172067 5078185.84703339,2442880.205619 5078212.05883103,2443948.3363727 5076603.30975106,2442788.46432727 5076478.80371229,2441769.48069413 5078251.37652748))</t>
+    <t xml:space="preserve">POLYGON ((21.9347884480412 41.4453304271493,21.9394977397296 41.4465438625105,21.9435006376646 41.4448891723006,21.9447662598059 41.4450656746002,21.9543614416207 41.4342319564415,21.9439421337604 41.4333934262775,21.9347884480412 41.4453304271493))</t>
   </si>
   <si>
     <t xml:space="preserve">pellet1</t>
@@ -106,7 +103,7 @@
     <t xml:space="preserve">source4</t>
   </si>
   <si>
-    <t xml:space="preserve">POLYGON ((2445081.11344401 5079793.39383044,2447785.96016067 5080725.2070534,2447617.71610652 5077813.29073163,2445301.12489943 5078033.30218706,2445081.11344401 5079793.39383044))</t>
+    <t xml:space="preserve">POLYGON ((21.9645373511873 41.455713016914,21.9888354026551 41.4619862230537,21.987324040602 41.4423804391921,21.9665137477182 41.4438619720198,21.9645373511873 41.455713016914))</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -503,19 +500,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="34.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="34.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,142 +553,127 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>3857</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="1"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>3857</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>3857</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>3857</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="L5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -707,29 +690,27 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -753,43 +734,43 @@
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>100</v>
@@ -815,7 +796,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>100</v>
@@ -841,7 +822,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>100</v>
@@ -867,7 +848,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>100</v>
@@ -893,7 +874,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>100</v>
@@ -919,7 +900,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>100</v>
@@ -945,7 +926,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>100</v>
@@ -971,7 +952,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>100</v>
@@ -997,7 +978,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>100</v>
@@ -1023,7 +1004,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>100</v>
@@ -1049,7 +1030,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>100</v>
@@ -1075,7 +1056,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>100</v>
@@ -1101,7 +1082,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>100</v>
@@ -1127,7 +1108,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>100</v>
@@ -1153,7 +1134,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>100</v>
@@ -1179,7 +1160,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>100</v>
@@ -1205,7 +1186,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>100</v>
@@ -1231,7 +1212,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>100</v>
@@ -1257,7 +1238,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>100</v>
@@ -1283,7 +1264,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>100</v>
@@ -1309,7 +1290,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>100</v>
@@ -1335,7 +1316,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>100</v>
@@ -1361,7 +1342,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>100</v>
@@ -1387,7 +1368,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>100</v>
@@ -1413,43 +1394,43 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,39 +1473,39 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -1550,7 +1531,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -1576,7 +1557,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -1602,7 +1583,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -1628,7 +1609,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -1654,7 +1635,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -1680,7 +1661,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -1706,7 +1687,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -1732,7 +1713,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -1758,7 +1739,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>100</v>
@@ -1784,7 +1765,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>100</v>
@@ -1810,7 +1791,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>100</v>
@@ -1836,7 +1817,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>100</v>
@@ -1862,7 +1843,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>100</v>
@@ -1888,7 +1869,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>100</v>
@@ -1914,7 +1895,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>100</v>
@@ -1940,7 +1921,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>100</v>
@@ -1966,7 +1947,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -1992,7 +1973,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -2018,7 +1999,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -2044,7 +2025,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -2070,7 +2051,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -2096,7 +2077,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -2122,7 +2103,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -2148,43 +2129,43 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="M53" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,7 +2228,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
@@ -2255,37 +2236,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2291,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>
@@ -2319,71 +2300,71 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
